--- a/metadata/Illumina Leela Nextera V1V3 Adapters Worksheet.xlsx
+++ b/metadata/Illumina Leela Nextera V1V3 Adapters Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattsettles/projects/src/github.com-ucdavis-bioinformatics-training/2019_April_ESALQ_Microbial_Community_Analysis/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE164DAB-4F50-1648-B6D2-1F0814D3BF7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779173AC-DB80-CF47-934B-93222597599B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7780" yWindow="800" windowWidth="28800" windowHeight="16480" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P5 Forward Barcodes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="168">
   <si>
     <t>Forward Adapter Primer</t>
   </si>
@@ -529,6 +529,15 @@
   </si>
   <si>
     <t>GATCATG</t>
+  </si>
+  <si>
+    <t>squencing primer</t>
+  </si>
+  <si>
+    <t>AGATGTGTATAAGAGACAG</t>
+  </si>
+  <si>
+    <t>sequencing primer</t>
   </si>
 </sst>
 </file>
@@ -2739,30 +2748,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="71.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="35.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>118</v>
       </c>
@@ -2770,248 +2779,276 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>122</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>124</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F10" si="0">CONCATENATE(B3,C3,D3,E3)</f>
-        <v>TCGTCGGCAGCGTCGTAGAGTTTGATCCTGGCTCAG</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G3" t="str">
+        <f>CONCATENATE(B3,C3,D3,E3,F3)</f>
+        <v>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAGGTAGAGTTTGATCCTGGCTCAG</v>
+      </c>
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H10" si="1">CONCATENATE(G3,"-",A3,"-for")</f>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I10" si="0">CONCATENATE(H3,"-",A3,"-for")</f>
         <v>P5-27F_YM1-for</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>127</v>
       </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>TCGTCGGCAGCGTCCGTAGAGTTTGATCATGGCTCAG</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G10" si="1">CONCATENATE(B4,C4,D4,E4,F4)</f>
+        <v>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAGCGTAGAGTTTGATCATGGCTCAG</v>
+      </c>
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="str">
-        <f t="shared" si="1"/>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
         <v>P5-27F_YM2-for</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>130</v>
       </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>TCGTCGGCAGCGTCACGTAGAGTTTGATTCTGGCTCAG</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAGACGTAGAGTTTGATTCTGGCTCAG</v>
+      </c>
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="str">
-        <f t="shared" si="1"/>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
         <v>P5-27F_YM3-for</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>131</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>133</v>
       </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>TCGTCGGCAGCGTCTACGTAGAGTTTGATTATGGCTCAG</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAGTACGTAGAGTTTGATTATGGCTCAG</v>
+      </c>
+      <c r="H6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="str">
-        <f t="shared" si="1"/>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
         <v>P5-27F_YM4-for</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>134</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>136</v>
       </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>TCGTCGGCAGCGTCGTACGTAGGGTTCGATTCTGGCTCAG</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAGGTACGTAGGGTTCGATTCTGGCTCAG</v>
+      </c>
+      <c r="H7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="str">
-        <f t="shared" si="1"/>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
         <v>P5-27F_Bif-for</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>137</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>139</v>
       </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>TCGTCGGCAGCGTCCGTACGTAGAGTTTGATCCTGGCTTAG</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAGCGTACGTAGAGTTTGATCCTGGCTTAG</v>
+      </c>
+      <c r="H8" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="str">
-        <f t="shared" si="1"/>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
         <v>P5-27F_Bor-for</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>140</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>142</v>
       </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>TCGTCGGCAGCGTCACGTACGTAGAATTTGATCTTGGTTCAG</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAGACGTACGTAGAATTTGATCTTGGTTCAG</v>
+      </c>
+      <c r="H9" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="str">
-        <f t="shared" si="1"/>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
         <v>P5-27F_Chl-for</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>143</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>145</v>
       </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>TCGTCGGCAGCGTCTACGTACGTAGAGTTCGATCCTGGCTCAG</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>TCGTCGGCAGCGTCAGATGTGTATAAGAGACAGTACGTACGTAGAGTTCGATCCTGGCTCAG</v>
+      </c>
+      <c r="H10" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="str">
-        <f t="shared" si="1"/>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
         <v>P5-27F_Ato-for</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3025,30 +3062,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="46.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>118</v>
       </c>
@@ -3056,50 +3093,56 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>148</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F3" t="str">
-        <f>CONCATENATE(B3,C3,D3,E3)</f>
-        <v>GTCTCGTGGGCTCGGCCATTACCGCGGCTGCTGG</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G3" t="str">
+        <f>CONCATENATE(B3,C3,D3,E3,F3)</f>
+        <v>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAGCCATTACCGCGGCTGCTGG</v>
+      </c>
+      <c r="H3" t="s">
         <v>69</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H10" si="0">CONCATENATE(G3,"-",A3,"-rev")</f>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I10" si="0">CONCATENATE(H3,"-",A3,"-rev")</f>
         <v>NexteraP7-534R_1-rev</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>151</v>
       </c>
@@ -3107,27 +3150,30 @@
         <v>68</v>
       </c>
       <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" t="s">
         <v>152</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F4" t="str">
-        <f t="shared" ref="F4:F10" si="1">CONCATENATE(B4,C4,D4,E4)</f>
-        <v>GTCTCGTGGGCTCGGGCCATTACCGCGGCTGCTGG</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G10" si="1">CONCATENATE(B4,C4,D4,E4,F4)</f>
+        <v>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAGGCCATTACCGCGGCTGCTGG</v>
+      </c>
+      <c r="H4" t="s">
         <v>69</v>
       </c>
-      <c r="H4" t="str">
+      <c r="I4" t="str">
         <f t="shared" si="0"/>
         <v>NexteraP7-534R_2-rev</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -3135,27 +3181,30 @@
         <v>68</v>
       </c>
       <c r="C5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" t="s">
         <v>154</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F5" t="str">
-        <f t="shared" si="1"/>
-        <v>GTCTCGTGGGCTCGGTGCCATTACCGCGGCTGCTGG</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAGTGCCATTACCGCGGCTGCTGG</v>
+      </c>
+      <c r="H5" t="s">
         <v>69</v>
       </c>
-      <c r="H5" t="str">
+      <c r="I5" t="str">
         <f t="shared" si="0"/>
         <v>NexteraP7-534R_3-rev</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>155</v>
       </c>
@@ -3163,27 +3212,30 @@
         <v>68</v>
       </c>
       <c r="C6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" t="s">
         <v>156</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F6" t="str">
-        <f t="shared" si="1"/>
-        <v>GTCTCGTGGGCTCGGATGCCATTACCGCGGCTGCTGG</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAGATGCCATTACCGCGGCTGCTGG</v>
+      </c>
+      <c r="H6" t="s">
         <v>69</v>
       </c>
-      <c r="H6" t="str">
+      <c r="I6" t="str">
         <f t="shared" si="0"/>
         <v>NexteraP7-534R_4-rev</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -3191,27 +3243,30 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" t="s">
         <v>158</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F7" t="str">
-        <f t="shared" si="1"/>
-        <v>GTCTCGTGGGCTCGGCATGCCATTACCGCGGCTGCTGG</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAGCATGCCATTACCGCGGCTGCTGG</v>
+      </c>
+      <c r="H7" t="s">
         <v>69</v>
       </c>
-      <c r="H7" t="str">
+      <c r="I7" t="str">
         <f t="shared" si="0"/>
         <v>NexteraP7-534R_5-rev</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>159</v>
       </c>
@@ -3219,27 +3274,30 @@
         <v>68</v>
       </c>
       <c r="C8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" t="s">
         <v>160</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F8" t="str">
-        <f t="shared" si="1"/>
-        <v>GTCTCGTGGGCTCGGTCATGCCATTACCGCGGCTGCTGG</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAGTCATGCCATTACCGCGGCTGCTGG</v>
+      </c>
+      <c r="H8" t="s">
         <v>69</v>
       </c>
-      <c r="H8" t="str">
+      <c r="I8" t="str">
         <f t="shared" si="0"/>
         <v>NexteraP7-534R_6-rev</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -3247,27 +3305,30 @@
         <v>68</v>
       </c>
       <c r="C9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" t="s">
         <v>162</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F9" t="str">
-        <f t="shared" si="1"/>
-        <v>GTCTCGTGGGCTCGGATCATGCCATTACCGCGGCTGCTGG</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAGATCATGCCATTACCGCGGCTGCTGG</v>
+      </c>
+      <c r="H9" t="s">
         <v>69</v>
       </c>
-      <c r="H9" t="str">
+      <c r="I9" t="str">
         <f t="shared" si="0"/>
         <v>NexteraP7-534R_7-rev</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -3275,22 +3336,25 @@
         <v>68</v>
       </c>
       <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" t="s">
         <v>164</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F10" t="str">
-        <f t="shared" si="1"/>
-        <v>GTCTCGTGGGCTCGGGATCATGCCATTACCGCGGCTGCTGG</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>GTCTCGTGGGCTCGGAGATGTGTATAAGAGACAGGATCATGCCATTACCGCGGCTGCTGG</v>
+      </c>
+      <c r="H10" t="s">
         <v>69</v>
       </c>
-      <c r="H10" t="str">
+      <c r="I10" t="str">
         <f t="shared" si="0"/>
         <v>NexteraP7-534R_8-rev</v>
       </c>
